--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32931.22044709892</v>
+        <v>6553312.868972684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32931.22044709892</v>
+        <v>6553312.868972684</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9673.494520072036</v>
+        <v>581296.1866010693</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9673.494520072036</v>
+        <v>581296.1866010693</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035945039.522499</v>
+        <v>42394596.29327988</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9368.285565606118</v>
+        <v>1002039.566009141</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17819.32880158894</v>
+        <v>1852119.068233642</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26270.37203757174</v>
+        <v>2702198.570458144</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35163.48831865042</v>
+        <v>3523996.240590603</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44056.60459972908</v>
+        <v>4345793.910723061</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52619.84415965102</v>
+        <v>5195894.991940636</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61182.97528242181</v>
+        <v>6045974.494165134</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69746.10640519259</v>
+        <v>6896053.996389632</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78483.35039865936</v>
+        <v>7717851.956751849</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87215.36488476135</v>
+        <v>8546565.755675128</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95798.08565680453</v>
+        <v>9400543.598104827</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104361.2167795752</v>
+        <v>10250623.10032933</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112924.347902346</v>
+        <v>11100702.60255384</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121779.4453625394</v>
+        <v>11924404.95663742</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130672.561643618</v>
+        <v>12746202.62676989</v>
       </c>
     </row>
   </sheetData>
